--- a/report/experiment.xlsx
+++ b/report/experiment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Algorithm</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>with frequency learning</t>
+  </si>
+  <si>
+    <t>frequency learning on training data</t>
+  </si>
+  <si>
+    <t>before adding features</t>
   </si>
 </sst>
 </file>
@@ -370,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,29 +397,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>53.6</v>
+        <v>9.6</v>
       </c>
       <c r="C2">
-        <v>51.6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>53.6</v>
       </c>
       <c r="C3">
-        <v>54.8</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>58</v>
+      </c>
       <c r="C4">
-        <v>532</v>
+        <v>54.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>50.8</v>
       </c>
     </row>
   </sheetData>
